--- a/de11.xlsx
+++ b/de11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\chung chi tin hoc ung dung\Tin hoc CNTTCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HATCOM_Chung chi tin hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,10 +179,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +213,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -230,13 +230,88 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="4143375"/>
-          <a:ext cx="6315075" cy="2352675"/>
+          <a:ext cx="6315075" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="6696075"/>
+          <a:ext cx="4219575" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>9. Vẽ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> biểu đồ tròn bảng thống kê</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>10. vẽ biểu đồ cột bảng thống kê</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -508,7 +583,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +594,7 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,90 +731,90 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>200000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>220000</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>150000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>180000</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>240000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>280000</v>
       </c>
     </row>
